--- a/0-Update/Templates/BienLaiThuTien_NopTien_ThuThem.xlsx
+++ b/0-Update/Templates/BienLaiThuTien_NopTien_ThuThem.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AE$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AE$44</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,21 +29,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
   <si>
-    <t>TRUNG TÂM ANH NGỮ WISDOMHOUSE</t>
-  </si>
-  <si>
     <t>Mẫu số: 01-TT</t>
   </si>
   <si>
-    <t>Tầng 1, Tòa N07 - B1, KĐT Mới Dịch Vọng, Cầu Giấy, HN</t>
-  </si>
-  <si>
     <t>(Ban hành kèm theo QĐ 48/2006/QĐ-BTC</t>
   </si>
   <si>
-    <t>ĐT: 0886.475.575 - 0888.175.275</t>
-  </si>
-  <si>
     <t>ngày 20/03/2006 của Bộ Tài chính)</t>
   </si>
   <si>
@@ -138,13 +129,22 @@
   </si>
   <si>
     <t>&amp;=[DATA].SOTIEN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENCOSO</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].DIACHICOSO</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].SDTCOSO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,12 +205,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -238,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -279,25 +273,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -582,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -607,10 +598,10 @@
     <col min="34" max="34" width="21.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -629,101 +620,101 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+    </row>
+    <row r="3" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-    </row>
-    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
     </row>
-    <row r="4" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
+      <c r="B4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="T5" s="5"/>
       <c r="U5" s="6"/>
@@ -743,57 +734,57 @@
       <c r="D6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="I6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
+      <c r="I6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
       <c r="W6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="X6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="X6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
       <c r="AB6" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
     </row>
-    <row r="7" spans="1:34" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="I7" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
+      <c r="I7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
@@ -801,7 +792,7 @@
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
       <c r="AB7" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AC7" s="8"/>
       <c r="AD7" s="4"/>
@@ -824,10 +815,10 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I9" s="7"/>
       <c r="AB9" s="9"/>
@@ -836,25 +827,25 @@
       <c r="AE9" s="7"/>
       <c r="AF9" s="7"/>
       <c r="AH9" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I10" s="10"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AB10" s="9"/>
       <c r="AC10" s="11"/>
@@ -864,98 +855,98 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="14"/>
+      <c r="B13" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="T16" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
+      <c r="T16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
     </row>
     <row r="17" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -964,13 +955,13 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
@@ -978,14 +969,14 @@
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="V17" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AB17" s="7"/>
       <c r="AC17" s="7"/>
@@ -1078,7 +1069,7 @@
     </row>
     <row r="21" spans="2:34" x14ac:dyDescent="0.25">
       <c r="U21" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
@@ -1093,10 +1084,10 @@
     </row>
     <row r="22" spans="2:34" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:34" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:34" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:34" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1115,93 +1106,93 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
-      <c r="U25" s="20" t="s">
+      <c r="U25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
+    </row>
+    <row r="26" spans="2:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20"/>
-      <c r="AD25" s="20"/>
-      <c r="AE25" s="20"/>
-    </row>
-    <row r="26" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="19" t="s">
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+    </row>
+    <row r="27" spans="2:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="16"/>
-      <c r="AD26" s="16"/>
-      <c r="AE26" s="16"/>
-    </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B27" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
-      <c r="AC27" s="16"/>
-      <c r="AD27" s="16"/>
-      <c r="AE27" s="16"/>
-    </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+    </row>
+    <row r="28" spans="2:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="T28" s="5"/>
       <c r="U28" s="6"/>
@@ -1221,57 +1212,57 @@
       <c r="D29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="I29" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
+      <c r="I29" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
       <c r="W29" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="X29" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="X29" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
       <c r="AB29" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AC29" s="7"/>
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
     </row>
-    <row r="30" spans="2:34" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="I30" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
+      <c r="I30" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
       <c r="V30" s="8"/>
       <c r="W30" s="8"/>
       <c r="X30" s="8"/>
@@ -1279,7 +1270,7 @@
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AC30" s="8"/>
       <c r="AD30" s="4"/>
@@ -1302,10 +1293,10 @@
     </row>
     <row r="32" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I32" s="7"/>
       <c r="AB32" s="9"/>
@@ -1314,25 +1305,25 @@
       <c r="AE32" s="7"/>
       <c r="AF32" s="7"/>
       <c r="AH32" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I33" s="10"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
       <c r="T33" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AB33" s="9"/>
       <c r="AC33" s="11"/>
@@ -1342,98 +1333,98 @@
     </row>
     <row r="34" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="36" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B36" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="14"/>
-      <c r="X36" s="14"/>
-      <c r="Y36" s="14"/>
-      <c r="Z36" s="14"/>
-      <c r="AA36" s="14"/>
-      <c r="AB36" s="14"/>
-      <c r="AC36" s="14"/>
-      <c r="AD36" s="14"/>
-      <c r="AE36" s="14"/>
+      <c r="B36" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="18"/>
+      <c r="AD36" s="18"/>
+      <c r="AE36" s="18"/>
     </row>
     <row r="37" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="T39" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="U39" s="18"/>
-      <c r="V39" s="18"/>
-      <c r="W39" s="18"/>
-      <c r="X39" s="18"/>
-      <c r="Y39" s="18"/>
-      <c r="Z39" s="18"/>
-      <c r="AA39" s="18"/>
-      <c r="AB39" s="18"/>
-      <c r="AC39" s="18"/>
-      <c r="AD39" s="18"/>
-      <c r="AE39" s="18"/>
+      <c r="T39" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="14"/>
+      <c r="Y39" s="14"/>
+      <c r="Z39" s="14"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="14"/>
+      <c r="AC39" s="14"/>
+      <c r="AD39" s="14"/>
+      <c r="AE39" s="14"/>
     </row>
     <row r="40" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -1442,13 +1433,13 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
@@ -1456,14 +1447,14 @@
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
       <c r="V40" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="W40" s="7"/>
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AB40" s="7"/>
       <c r="AC40" s="7"/>
@@ -1509,11 +1500,21 @@
     </row>
     <row r="44" spans="2:32" x14ac:dyDescent="0.25">
       <c r="U44" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:AE13"/>
+    <mergeCell ref="B36:AE36"/>
+    <mergeCell ref="U2:AE2"/>
+    <mergeCell ref="U3:AE3"/>
+    <mergeCell ref="U4:AE4"/>
+    <mergeCell ref="I6:U6"/>
+    <mergeCell ref="I7:U7"/>
+    <mergeCell ref="B3:T3"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="X6:AA6"/>
     <mergeCell ref="T39:AE39"/>
     <mergeCell ref="I30:U30"/>
     <mergeCell ref="T16:AE16"/>
@@ -1524,19 +1525,12 @@
     <mergeCell ref="B26:T26"/>
     <mergeCell ref="B27:T27"/>
     <mergeCell ref="X29:AA29"/>
-    <mergeCell ref="B13:AE13"/>
-    <mergeCell ref="B36:AE36"/>
-    <mergeCell ref="U2:AE2"/>
-    <mergeCell ref="U3:AE3"/>
-    <mergeCell ref="U4:AE4"/>
-    <mergeCell ref="I6:U6"/>
-    <mergeCell ref="I7:U7"/>
-    <mergeCell ref="B3:T3"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="X6:AA6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.35" top="0.35" bottom="0.35" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="11" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="24" max="30" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>